--- a/playback/MLST (adult)/MLST (Adult);bandpass;+10dB_UW.xlsx
+++ b/playback/MLST (adult)/MLST (Adult);bandpass;+10dB_UW.xlsx
@@ -39,2749 +39,2749 @@
     <t>01_10</t>
   </si>
   <si>
-    <t>List_01\10_T7_284_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>if you RUB the DIAL it will HUM</t>
   </si>
   <si>
     <t>01_11</t>
   </si>
   <si>
-    <t>List_01\11_T8_292_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>WADE through the MUCK to find the LOOT</t>
   </si>
   <si>
     <t>01_12</t>
   </si>
   <si>
-    <t>List_01\12_T9_309_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the FOAL likes to LICK dried SAP</t>
   </si>
   <si>
     <t>01_01</t>
   </si>
   <si>
-    <t>List_01\1_T5_046_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the REBEL has a LARGE horse to MOUNT</t>
   </si>
   <si>
     <t>01_02</t>
   </si>
   <si>
-    <t>List_01\2_T3_051_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>you COULD use the SWITCH near the LAMP</t>
   </si>
   <si>
     <t>01_03</t>
   </si>
   <si>
-    <t>List_01\3_T9_071_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CLOSE the BOX and hide it in a BUSH</t>
   </si>
   <si>
     <t>01_04</t>
   </si>
   <si>
-    <t>List_01\4_T2_085_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a FAN to KEEP the room COOL</t>
   </si>
   <si>
     <t>01_05</t>
   </si>
   <si>
-    <t>List_01\5_T7_126_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>if you KICK the TAP it will RUN</t>
   </si>
   <si>
     <t>01_06</t>
   </si>
   <si>
-    <t>List_01\6_T8_155_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she SAT against the BACK of the SEAT</t>
   </si>
   <si>
     <t>01_07</t>
   </si>
   <si>
-    <t>List_01\7_T4_200_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>PLAY a psalm on your FLUTE near the BLAZE</t>
   </si>
   <si>
     <t>01_08</t>
   </si>
   <si>
-    <t>List_01\8_T7_208_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>GREASE will make the RAFT feel SLICK</t>
   </si>
   <si>
     <t>01_09</t>
   </si>
   <si>
-    <t>List_01\9_T5_239_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SWAP for a SPEAR during the SIEGE</t>
   </si>
   <si>
     <t>02_10</t>
   </si>
   <si>
-    <t>List_02\10_T8_247_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the GULL likes to PERCH on the LIMB</t>
   </si>
   <si>
     <t>02_11</t>
   </si>
   <si>
-    <t>List_02\11_T6_269_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the BUM stole the LOOT from the MALL</t>
   </si>
   <si>
     <t>02_12</t>
   </si>
   <si>
-    <t>List_02\12_T10_289_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the LAIR will REEK if you kill the RAM</t>
   </si>
   <si>
     <t>02_01</t>
   </si>
   <si>
-    <t>List_02\1_T10_034_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>you will FIND the VAN parked on the GRASS</t>
   </si>
   <si>
     <t>02_02</t>
   </si>
   <si>
-    <t>List_02\2_T9_040_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CLAIM your CLOTHES when i’m done with the WASH</t>
   </si>
   <si>
     <t>02_03</t>
   </si>
   <si>
-    <t>List_02\3_T2_073_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she HELD a DISH of meat to ROAST</t>
   </si>
   <si>
     <t>02_04</t>
   </si>
   <si>
-    <t>List_02\4_T4_085_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>02_05</t>
   </si>
   <si>
-    <t>List_02\5_T4_104_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he SAID he would COME to the DOCK</t>
   </si>
   <si>
     <t>02_06</t>
   </si>
   <si>
-    <t>List_02\6_T2_132_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>KEEP the SOUP warm on the FIRE</t>
   </si>
   <si>
     <t>02_07</t>
   </si>
   <si>
-    <t>List_02\7_T9_194_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the WHALE did not DWELL near the WHARF</t>
   </si>
   <si>
     <t>02_08</t>
   </si>
   <si>
-    <t>List_02\8_T4_223_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>pluck a GOOSE for the CHAMP at the FEAST</t>
   </si>
   <si>
     <t>02_09</t>
   </si>
   <si>
-    <t>List_02\9_T1_228_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>MOISTEN the CHISEL as you carve the CRIB</t>
   </si>
   <si>
     <t>03_10</t>
   </si>
   <si>
-    <t>List_03\10_T6_263_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a wooden HOOP to WEAVE a SHAWL</t>
   </si>
   <si>
     <t>03_11</t>
   </si>
   <si>
-    <t>List_03\11_T5_275_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CHOP a RIB from one side of the PIG</t>
   </si>
   <si>
     <t>03_12</t>
   </si>
   <si>
-    <t>List_03\12_T1_311_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>HURL a rotten PEACH at the WITCH</t>
   </si>
   <si>
     <t>03_01</t>
   </si>
   <si>
-    <t>List_03\1_T10_059_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TRAIL across the LAND is LONG</t>
   </si>
   <si>
     <t>03_02</t>
   </si>
   <si>
-    <t>List_03\2_T6_063_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i WANT to TRIM the trees in the FIELD</t>
   </si>
   <si>
     <t>03_03</t>
   </si>
   <si>
-    <t>List_03\3_T5_079_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the COACH took a QUICK break to VOTE</t>
   </si>
   <si>
     <t>03_04</t>
   </si>
   <si>
-    <t>List_03\4_T4_089_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he WILL not PICK a wooden CANE</t>
   </si>
   <si>
     <t>03_05</t>
   </si>
   <si>
-    <t>List_03\5_T4_110_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>FILL up the CAN at the LAKE</t>
   </si>
   <si>
     <t>03_06</t>
   </si>
   <si>
-    <t>List_03\6_T7_153_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use FORCE to PULL out the STAKE</t>
   </si>
   <si>
     <t>03_07</t>
   </si>
   <si>
-    <t>List_03\7_T9_168_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>BROWSE through the JUNK to find the SPOOL</t>
   </si>
   <si>
     <t>03_08</t>
   </si>
   <si>
-    <t>List_03\8_T8_190_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SCOUR the GRIME stained sink with BLEACH</t>
   </si>
   <si>
     <t>03_09</t>
   </si>
   <si>
-    <t>List_03\9_T1_197_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>we can SNACK on CRAB at DUSK</t>
   </si>
   <si>
     <t>04_10</t>
   </si>
   <si>
-    <t>List_04\10_T2_267_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CANNED fruit made a STAIN on his CUFF</t>
   </si>
   <si>
     <t>04_11</t>
   </si>
   <si>
-    <t>List_04\11_T5_276_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>put a NAIL in the RIM of the LOOM</t>
   </si>
   <si>
     <t>04_12</t>
   </si>
   <si>
-    <t>List_04\12_T3_315_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SOAK the MUM to get rid of the BUG</t>
   </si>
   <si>
     <t>04_01</t>
   </si>
   <si>
-    <t>List_04\1_T3_006_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MODEL wore a PLAIN black DRESS</t>
   </si>
   <si>
     <t>04_02</t>
   </si>
   <si>
-    <t>List_04\2_T7_017_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he STOOD near a WAX model of a SAINT</t>
   </si>
   <si>
     <t>04_03</t>
   </si>
   <si>
-    <t>List_04\3_T6_068_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i SWEAR if you eat TOAST you’ll stay SLIM</t>
   </si>
   <si>
     <t>04_04</t>
   </si>
   <si>
-    <t>List_04\4_T7_106_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MOLD on the BOOK made it STICK</t>
   </si>
   <si>
     <t>04_05</t>
   </si>
   <si>
-    <t>List_04\5_T5_114_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TALL man ROSE when we MET</t>
   </si>
   <si>
     <t>04_06</t>
   </si>
   <si>
-    <t>List_04\6_T9_124_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>RAISE the oven RACK when you BAKE</t>
   </si>
   <si>
     <t>04_07</t>
   </si>
   <si>
-    <t>List_04\7_T10_205_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the WHALE near the WHARF was in PERIL</t>
   </si>
   <si>
     <t>04_08</t>
   </si>
   <si>
-    <t>List_04\8_T4_224_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a PROD to SIFT through the JUNK</t>
   </si>
   <si>
     <t>04_09</t>
   </si>
   <si>
-    <t>List_04\9_T7_240_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>a lump of FAT will FLOAT as you CHURN</t>
   </si>
   <si>
     <t>05_10</t>
   </si>
   <si>
-    <t>List_05\10_T9_250_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>WELD the COIL to the bird’s CAGE</t>
   </si>
   <si>
     <t>05_11</t>
   </si>
   <si>
-    <t>List_05\11_T3_279_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SLAP some JAM on the fresh LOAF</t>
   </si>
   <si>
     <t>05_12</t>
   </si>
   <si>
-    <t>List_05\12_T5_320_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TAG on the VEST made it SAG</t>
   </si>
   <si>
     <t>05_01</t>
   </si>
   <si>
-    <t>List_05\1_T7_003_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>TREAT the CLASS to a nice long SWIM</t>
   </si>
   <si>
     <t>05_02</t>
   </si>
   <si>
-    <t>List_05\2_T4_072_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SPARE the SOIL you need the MOST</t>
   </si>
   <si>
     <t>05_03</t>
   </si>
   <si>
-    <t>List_05\3_T7_077_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>this SEASON the grapes will CHANGE to PURPLE</t>
   </si>
   <si>
     <t>05_04</t>
   </si>
   <si>
-    <t>List_05\4_T1_089_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>05_05</t>
   </si>
   <si>
-    <t>List_05\5_T4_109_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>a lion’s ROAR is a SIGN of FEAR</t>
   </si>
   <si>
     <t>05_06</t>
   </si>
   <si>
-    <t>List_05\6_T4_127_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>a ROCK hit his HEAD during the FIGHT</t>
   </si>
   <si>
     <t>05_07</t>
   </si>
   <si>
-    <t>List_05\7_T3_212_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CLING to the pot as we MELT the LARD</t>
   </si>
   <si>
     <t>05_08</t>
   </si>
   <si>
-    <t>List_05\8_T1_221_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>YAWN as you FIB about your BADGE</t>
   </si>
   <si>
     <t>05_09</t>
   </si>
   <si>
-    <t>List_05\9_T7_238_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>HEAVE some MOSS onto the HIVE</t>
   </si>
   <si>
     <t>06_10</t>
   </si>
   <si>
-    <t>List_06\10_T1_265_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the PAD will CURL if you let it SOAK</t>
   </si>
   <si>
     <t>06_11</t>
   </si>
   <si>
-    <t>List_06\11_T10_282_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the HAZE in the COVE hid the ROACH</t>
   </si>
   <si>
     <t>06_12</t>
   </si>
   <si>
-    <t>List_06\12_T1_308_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CRATE full of CANNED meat has SUNK</t>
   </si>
   <si>
     <t>06_01</t>
   </si>
   <si>
-    <t>List_06\1_T4_047_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MASON will prove he can GROW a BEARD</t>
   </si>
   <si>
     <t>06_02</t>
   </si>
   <si>
-    <t>List_06\2_T9_060_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the bird LEFT to SEARCH for its FLOCK</t>
   </si>
   <si>
     <t>06_03</t>
   </si>
   <si>
-    <t>List_06\3_T5_078_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use this FORM to GRADE his SKILL</t>
   </si>
   <si>
     <t>06_04</t>
   </si>
   <si>
-    <t>List_06\4_T3_141_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CAKE batter ROSE as it got HOT</t>
   </si>
   <si>
     <t>06_05</t>
   </si>
   <si>
-    <t>List_06\5_T9_143_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he TAUGHT the class SOME songs to SING</t>
   </si>
   <si>
     <t>06_06</t>
   </si>
   <si>
-    <t>List_06\6_T3_152_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>read your BOOK in the SHADE near the POOL</t>
   </si>
   <si>
     <t>06_07</t>
   </si>
   <si>
-    <t>List_06\7_T6_181_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a GAVEL to SMASH the PEBBLE</t>
   </si>
   <si>
     <t>06_08</t>
   </si>
   <si>
-    <t>List_06\8_T3_229_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SLEEK fur PELT lay where it was SLUNG</t>
   </si>
   <si>
     <t>06_09</t>
   </si>
   <si>
-    <t>List_06\9_T1_234_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she will FRET and FUME when she wants FUDGE</t>
   </si>
   <si>
     <t>07_10</t>
   </si>
   <si>
-    <t>List_07\10_T10_274_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CROWD will jeer as they MOCK the HAG</t>
   </si>
   <si>
     <t>07_11</t>
   </si>
   <si>
-    <t>List_07\11_T1_282_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>07_12</t>
   </si>
   <si>
-    <t>List_07\12_T4_313_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he LIED that a RAT was in the DEN</t>
   </si>
   <si>
     <t>07_01</t>
   </si>
   <si>
-    <t>List_07\1_T8_011_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the GANG had to LIVE in a small FLAT</t>
   </si>
   <si>
     <t>07_02</t>
   </si>
   <si>
-    <t>List_07\2_T6_054_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the DAMP soil made his FOOT look BROWN</t>
   </si>
   <si>
     <t>07_03</t>
   </si>
   <si>
-    <t>List_07\3_T7_057_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>his BUNK was FLAT and made of WOOD</t>
   </si>
   <si>
     <t>07_04</t>
   </si>
   <si>
-    <t>List_07\4_T2_098_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>PULL a small BOARD off of the SHED</t>
   </si>
   <si>
     <t>07_05</t>
   </si>
   <si>
-    <t>List_07\5_T9_119_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TEAM FOUGHT to win the GAME</t>
   </si>
   <si>
     <t>07_06</t>
   </si>
   <si>
-    <t>List_07\6_T8_134_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>our GUIDE drove FAR to get to the BEACH</t>
   </si>
   <si>
     <t>07_07</t>
   </si>
   <si>
-    <t>List_07\7_T2_161_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the LUMP of CHEESE has turned SOUR</t>
   </si>
   <si>
     <t>07_08</t>
   </si>
   <si>
-    <t>List_07\8_T3_164_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>they had a FEAST of SHARK on the BARGE</t>
   </si>
   <si>
     <t>07_09</t>
   </si>
   <si>
-    <t>List_07\9_T3_180_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she could not BREATHE in her SNUG new GIRDLE</t>
   </si>
   <si>
     <t>08_10</t>
   </si>
   <si>
-    <t>List_08\10_T3_241_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MOAT around the SHACK reached his SHIN</t>
   </si>
   <si>
     <t>08_11</t>
   </si>
   <si>
-    <t>List_08\11_T1_271_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i like to SIP POP while i DINE</t>
   </si>
   <si>
     <t>08_12</t>
   </si>
   <si>
-    <t>List_08\12_T9_298_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he will SOB if you WRECK his new BIKE</t>
   </si>
   <si>
     <t>08_01</t>
   </si>
   <si>
-    <t>List_08\1_T9_033_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SMELL in the TUNNEL made her FAINT</t>
   </si>
   <si>
     <t>08_02</t>
   </si>
   <si>
-    <t>List_08\2_T5_041_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SNAKE is SMALL but has a thick THROAT</t>
   </si>
   <si>
     <t>08_03</t>
   </si>
   <si>
-    <t>List_08\3_T4_052_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>your TRACK for the SHORT race is the WORST</t>
   </si>
   <si>
     <t>08_04</t>
   </si>
   <si>
-    <t>List_08\4_T7_094_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the BUS headed WEST at DAWN</t>
   </si>
   <si>
     <t>08_05</t>
   </si>
   <si>
-    <t>List_08\5_T4_139_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the glass JAR will not LOSE its SHAPE</t>
   </si>
   <si>
     <t>08_06</t>
   </si>
   <si>
-    <t>List_08\6_T7_147_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>LOAD the truck with TEN tins of HAM</t>
   </si>
   <si>
     <t>08_07</t>
   </si>
   <si>
-    <t>List_08\7_T3_191_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>HOIST the PROP into the TRASH</t>
   </si>
   <si>
     <t>08_08</t>
   </si>
   <si>
-    <t>List_08\8_T7_201_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>DUMP the CHEESE into the CART</t>
   </si>
   <si>
     <t>08_09</t>
   </si>
   <si>
-    <t>List_08\9_T10_217_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she will SHRIEK and SWOON if you GROWL</t>
   </si>
   <si>
     <t>09_10</t>
   </si>
   <si>
-    <t>List_09\10_T5_245_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>we have a STACK of CANNED JAM</t>
   </si>
   <si>
     <t>09_11</t>
   </si>
   <si>
-    <t>List_09\11_T7_294_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>MEND the big GASH in the HOSE</t>
   </si>
   <si>
     <t>09_12</t>
   </si>
   <si>
-    <t>List_09\12_T3_299_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>take a LOAF and some JAM for the HIKE</t>
   </si>
   <si>
     <t>09_01</t>
   </si>
   <si>
-    <t>List_09\1_T6_020_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the FOG BROUGHT darkness and GLOOM</t>
   </si>
   <si>
     <t>09_02</t>
   </si>
   <si>
-    <t>List_09\2_T3_055_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>PUSH the CURTAIN aside for the PEOPLE</t>
   </si>
   <si>
     <t>09_03</t>
   </si>
   <si>
-    <t>List_09\3_T1_056_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the COUPLE gathered NUTS in the WOODS</t>
   </si>
   <si>
     <t>09_04</t>
   </si>
   <si>
-    <t>List_09\4_T5_100_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>they will SEEK to WIN the boat RACE</t>
   </si>
   <si>
     <t>09_05</t>
   </si>
   <si>
-    <t>List_09\5_T4_133_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the BUS will bring you HOME from WORK</t>
   </si>
   <si>
     <t>09_06</t>
   </si>
   <si>
-    <t>List_09\6_T9_158_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>it was LATE when i LIT the COAL</t>
   </si>
   <si>
     <t>09_07</t>
   </si>
   <si>
-    <t>List_09\7_T7_215_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>WRENCH the DART out of the SHARK</t>
   </si>
   <si>
     <t>09_08</t>
   </si>
   <si>
-    <t>List_09\8_T4_216_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>GOBBLE your lunch before you FETCH the HOG</t>
   </si>
   <si>
     <t>09_09</t>
   </si>
   <si>
-    <t>List_09\9_T6_236_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>HECKLE the one TOOTHED man to raise his PULSE</t>
   </si>
   <si>
     <t>10_10</t>
   </si>
   <si>
-    <t>List_10\10_T3_251_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CRAM the PEACH into the CRATE</t>
   </si>
   <si>
     <t>10_11</t>
   </si>
   <si>
-    <t>List_10\11_T2_287_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the RASH from the WEED made her MOAN</t>
   </si>
   <si>
     <t>10_12</t>
   </si>
   <si>
-    <t>List_10\12_T5_308_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>10_01</t>
   </si>
   <si>
-    <t>List_10\1_T9_013_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MOUSE FLED when it saw the light FLASH</t>
   </si>
   <si>
     <t>10_02</t>
   </si>
   <si>
-    <t>List_10\2_T2_018_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>they put a LOUD PUMP near the DRAIN</t>
   </si>
   <si>
     <t>10_03</t>
   </si>
   <si>
-    <t>List_10\3_T5_044_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the GUARD who came LAST was gagged and BOUND</t>
   </si>
   <si>
     <t>10_04</t>
   </si>
   <si>
-    <t>List_10\4_T6_101_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she would not DARE to LEAVE the sick MAN</t>
   </si>
   <si>
     <t>10_05</t>
   </si>
   <si>
-    <t>List_10\5_T5_116_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MOON in the SKY shone on the REEF</t>
   </si>
   <si>
     <t>10_06</t>
   </si>
   <si>
-    <t>List_10\6_T1_126_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>10_07</t>
   </si>
   <si>
-    <t>List_10\7_T4_168_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>10_08</t>
   </si>
   <si>
-    <t>List_10\8_T3_201_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>10_09</t>
   </si>
   <si>
-    <t>List_10\9_T1_205_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>11_10</t>
   </si>
   <si>
-    <t>List_11\10_T9_242_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>WATER came from the LEAK in the DIKE</t>
   </si>
   <si>
     <t>11_11</t>
   </si>
   <si>
-    <t>List_11\11_T5_252_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the ROCK in the SLING can wreck the KITE</t>
   </si>
   <si>
     <t>11_12</t>
   </si>
   <si>
-    <t>List_11\12_T6_268_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he likes to POKE his PET RAT</t>
   </si>
   <si>
     <t>11_01</t>
   </si>
   <si>
-    <t>List_11\1_T9_010_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TROOP can rest in the WARM LODGE</t>
   </si>
   <si>
     <t>11_02</t>
   </si>
   <si>
-    <t>List_11\2_T8_024_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he used his FIST to SLUG the CREEP</t>
   </si>
   <si>
     <t>11_03</t>
   </si>
   <si>
-    <t>List_11\3_T4_063_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>11_04</t>
   </si>
   <si>
-    <t>List_11\4_T1_082_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the ROPE has BEEN tied in a KNOT</t>
   </si>
   <si>
     <t>11_05</t>
   </si>
   <si>
-    <t>List_11\5_T3_090_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SEAL the HOLE that you made in the WELL</t>
   </si>
   <si>
     <t>11_06</t>
   </si>
   <si>
-    <t>List_11\6_T8_130_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>RAISE your CAP so you can HEAR</t>
   </si>
   <si>
     <t>11_07</t>
   </si>
   <si>
-    <t>List_11\7_T4_185_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>a THRONG of people LEAPT on the SHUTTLE</t>
   </si>
   <si>
     <t>11_08</t>
   </si>
   <si>
-    <t>List_11\8_T9_193_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SINGE both HALVES so the metal will FUSE</t>
   </si>
   <si>
     <t>11_09</t>
   </si>
   <si>
-    <t>List_11\9_T6_202_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SLIME will DRIP through the FUNNEL</t>
   </si>
   <si>
     <t>12_10</t>
   </si>
   <si>
-    <t>List_12\10_T3_247_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>12_11</t>
   </si>
   <si>
-    <t>List_12\11_T7_260_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SOD stuck to the RIM of the MUG</t>
   </si>
   <si>
     <t>12_12</t>
   </si>
   <si>
-    <t>List_12\12_T3_209_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>DRAPE the cloth FLAP over the HEDGE</t>
   </si>
   <si>
     <t>12_01</t>
   </si>
   <si>
-    <t>List_12\1_T7_013_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>12_02</t>
   </si>
   <si>
-    <t>List_12\2_T1_016_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the BARREL BURST when it was too FULL</t>
   </si>
   <si>
     <t>12_03</t>
   </si>
   <si>
-    <t>List_12\3_T3_032_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he FLUNG a BOTTLE at the CROWD</t>
   </si>
   <si>
     <t>12_04</t>
   </si>
   <si>
-    <t>List_12\4_T1_087_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i TOOK a long BATH in the TUB</t>
   </si>
   <si>
     <t>12_05</t>
   </si>
   <si>
-    <t>List_12\5_T1_142_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she CAME to watch her KID have FUN</t>
   </si>
   <si>
     <t>12_06</t>
   </si>
   <si>
-    <t>List_12\6_T5_148_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SHUT the large CASE if you need to HIDE</t>
   </si>
   <si>
     <t>12_07</t>
   </si>
   <si>
-    <t>List_12\7_T5_195_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CLOWN will JUGGLE to make the kids GIGGLE</t>
   </si>
   <si>
     <t>12_08</t>
   </si>
   <si>
-    <t>List_12\8_T3_210_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>TOSS the CRAB onto the BARGE</t>
   </si>
   <si>
     <t>12_09</t>
   </si>
   <si>
-    <t>List_12\9_T1_236_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_10</t>
   </si>
   <si>
-    <t>List_13\10_T4_276_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_11</t>
   </si>
   <si>
-    <t>List_13\11_T7_297_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>hide the PEARL in the SHACK near the CAVE</t>
   </si>
   <si>
     <t>13_12</t>
   </si>
   <si>
-    <t>List_13\12_T6_311_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_01</t>
   </si>
   <si>
-    <t>List_13\1_T1_025_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CURTAIN SWUNG open for the DANCE</t>
   </si>
   <si>
     <t>13_02</t>
   </si>
   <si>
-    <t>List_13\2_T4_044_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_03</t>
   </si>
   <si>
-    <t>List_13\3_T3_048_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>you can GRILL or BOIL the BEEF</t>
   </si>
   <si>
     <t>13_04</t>
   </si>
   <si>
-    <t>List_13\4_T5_087_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_05</t>
   </si>
   <si>
-    <t>List_13\5_T9_092_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>her COAT got WET when she spilled her WINE</t>
   </si>
   <si>
     <t>13_06</t>
   </si>
   <si>
-    <t>List_13\6_T9_104_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>13_07</t>
   </si>
   <si>
-    <t>List_13\7_T3_206_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the THIEVES were HANGED for stealing the JEWEL</t>
   </si>
   <si>
     <t>13_08</t>
   </si>
   <si>
-    <t>List_13\8_T5_219_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>you can’t SNOOZE as we LUNGE and SWERVE</t>
   </si>
   <si>
     <t>13_09</t>
   </si>
   <si>
-    <t>List_13\9_T9_226_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CLOWN will BAFFLE the kids til they GIGGLE</t>
   </si>
   <si>
     <t>14_10</t>
   </si>
   <si>
-    <t>List_14\10_T7_265_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>14_11</t>
   </si>
   <si>
-    <t>List_14\11_T5_274_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>14_12</t>
   </si>
   <si>
-    <t>List_14\12_T3_320_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>14_01</t>
   </si>
   <si>
-    <t>List_14\1_T1_019_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the WORST STUFF got the lowest PRICE</t>
   </si>
   <si>
     <t>14_02</t>
   </si>
   <si>
-    <t>List_14\2_T5_034_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>14_03</t>
   </si>
   <si>
-    <t>List_14\3_T7_067_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the TRACE of GREEN ink was BRIGHT</t>
   </si>
   <si>
     <t>14_04</t>
   </si>
   <si>
-    <t>List_14\4_T10_084_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i MISS all the FUN that comes with FAME</t>
   </si>
   <si>
     <t>14_05</t>
   </si>
   <si>
-    <t>List_14\5_T4_116_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>14_06</t>
   </si>
   <si>
-    <t>List_14\6_T2_135_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>you must TRY to LEARN to stand STILL</t>
   </si>
   <si>
     <t>14_07</t>
   </si>
   <si>
-    <t>List_14\7_T1_174_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use SLANG to scare AWAY the FLIRT</t>
   </si>
   <si>
     <t>14_08</t>
   </si>
   <si>
-    <t>List_14\8_T4_188_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the STING of the JAB made him RETCH</t>
   </si>
   <si>
     <t>14_09</t>
   </si>
   <si>
-    <t>List_14\9_T6_203_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>QUAIL will NIBBLE on the eggs of a TURTLE</t>
   </si>
   <si>
     <t>15_10</t>
   </si>
   <si>
-    <t>List_15\10_T1_268_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>15_11</t>
   </si>
   <si>
-    <t>List_15\11_T2_290_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>LUG the bucket of HASH to your PAL</t>
   </si>
   <si>
     <t>15_12</t>
   </si>
   <si>
-    <t>List_15\12_T5_294_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>15_01</t>
   </si>
   <si>
-    <t>List_15\1_T9_008_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the FLOCK will NEST in the wild BRUSH</t>
   </si>
   <si>
     <t>15_02</t>
   </si>
   <si>
-    <t>List_15\2_T3_039_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she FLED from the YARD in her SKIRT</t>
   </si>
   <si>
     <t>15_03</t>
   </si>
   <si>
-    <t>List_15\3_T8_050_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>GRIP the handle as you LIFT the DRILL</t>
   </si>
   <si>
     <t>15_04</t>
   </si>
   <si>
-    <t>List_15\4_T3_115_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the right TOOL will MAKE your work the BEST</t>
   </si>
   <si>
     <t>15_05</t>
   </si>
   <si>
-    <t>List_15\5_T5_140_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SAIL your new BOAT on the LAKE</t>
   </si>
   <si>
     <t>15_06</t>
   </si>
   <si>
-    <t>List_15\6_T6_160_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>HANG the dull PRINT that you HATE</t>
   </si>
   <si>
     <t>15_07</t>
   </si>
   <si>
-    <t>List_15\7_T9_178_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>RATTLE the NICKEL you have in your POUCH</t>
   </si>
   <si>
     <t>15_08</t>
   </si>
   <si>
-    <t>List_15\8_T4_186_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he KNEELED down to BUCKLE her SMOCK</t>
   </si>
   <si>
     <t>15_09</t>
   </si>
   <si>
-    <t>List_15\9_T2_235_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a GAVEL to SMASH the BULGE</t>
   </si>
   <si>
     <t>16_10</t>
   </si>
   <si>
-    <t>List_16\10_T3_275_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_11</t>
   </si>
   <si>
-    <t>List_16\11_T1_283_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the STACK of bread is STALE and smells FOUL</t>
   </si>
   <si>
     <t>16_12</t>
   </si>
   <si>
-    <t>List_16\12_T4_292_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_01</t>
   </si>
   <si>
-    <t>List_16\1_T6_017_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_02</t>
   </si>
   <si>
-    <t>List_16\2_T4_020_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_03</t>
   </si>
   <si>
-    <t>List_16\3_T9_022_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>his THUMB ached in SPITE of the BALM</t>
   </si>
   <si>
     <t>16_04</t>
   </si>
   <si>
-    <t>List_16\4_T10_119_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_05</t>
   </si>
   <si>
-    <t>List_16\5_T9_141_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_06</t>
   </si>
   <si>
-    <t>List_16\6_T9_147_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>16_07</t>
   </si>
   <si>
-    <t>List_16\7_T3_184_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the THIEVES were HANGED for stealing FLOUR</t>
   </si>
   <si>
     <t>16_08</t>
   </si>
   <si>
-    <t>List_16\8_T5_218_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>PIERCE the SCAB to draw out the VENOM</t>
   </si>
   <si>
     <t>16_09</t>
   </si>
   <si>
-    <t>List_16\9_T7_230_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SOOT on the BROOM made him COUGH</t>
   </si>
   <si>
     <t>17_10</t>
   </si>
   <si>
-    <t>List_17\10_T6_245_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_11</t>
   </si>
   <si>
-    <t>List_17\11_T3_312_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the LATCH will CLICK when you trap the PIG</t>
   </si>
   <si>
     <t>17_12</t>
   </si>
   <si>
-    <t>List_17\12_T1_313_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_01</t>
   </si>
   <si>
-    <t>List_17\1_T6_047_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_02</t>
   </si>
   <si>
-    <t>List_17\2_T8_058_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>DASH to the BANK ahead of the MOB</t>
   </si>
   <si>
     <t>17_03</t>
   </si>
   <si>
-    <t>List_17\3_T3_072_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_04</t>
   </si>
   <si>
-    <t>List_17\4_T5_124_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_05</t>
   </si>
   <si>
-    <t>List_17\5_T8_132_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>17_06</t>
   </si>
   <si>
-    <t>List_17\6_T7_137_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i FEEL that i WILL win the RACE</t>
   </si>
   <si>
     <t>17_07</t>
   </si>
   <si>
-    <t>List_17\7_T6_170_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the STAG has been BITTEN by the HOUND</t>
   </si>
   <si>
     <t>17_08</t>
   </si>
   <si>
-    <t>List_17\8_T3_172_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the SOOT covered CART rolled down the RAMP</t>
   </si>
   <si>
     <t>17_09</t>
   </si>
   <si>
-    <t>List_17\9_T7_176_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>if you GAWK at the MIME he will WINK</t>
   </si>
   <si>
     <t>18_10</t>
   </si>
   <si>
-    <t>List_18\10_T7_257_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>SLAP the MAT to find the lost BEAD</t>
   </si>
   <si>
     <t>18_11</t>
   </si>
   <si>
-    <t>List_18\11_T4_282_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_12</t>
   </si>
   <si>
-    <t>List_18\12_T5_312_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_01</t>
   </si>
   <si>
-    <t>List_18\1_T2_012_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he had a SLIM BUILD and his hair was DARK</t>
   </si>
   <si>
     <t>18_02</t>
   </si>
   <si>
-    <t>List_18\2_T4_024_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_03</t>
   </si>
   <si>
-    <t>List_18\3_T1_032_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_04</t>
   </si>
   <si>
-    <t>List_18\4_T10_117_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>she did not want to PATCH the TORN SHEET</t>
   </si>
   <si>
     <t>18_05</t>
   </si>
   <si>
-    <t>List_18\5_T9_135_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_06</t>
   </si>
   <si>
-    <t>List_18\6_T3_140_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>18_07</t>
   </si>
   <si>
-    <t>List_18\7_T9_167_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the bird will SWOOP down to FETCH the CRUMB</t>
   </si>
   <si>
     <t>18_08</t>
   </si>
   <si>
-    <t>List_18\8_T6_213_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>DAB some white CHALK on your CLOAK</t>
   </si>
   <si>
     <t>18_09</t>
   </si>
   <si>
-    <t>List_18\9_T3_233_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>if you SNEAK you can SCAN the QUIZ</t>
   </si>
   <si>
     <t>19_10</t>
   </si>
   <si>
-    <t>List_19\10_T10_242_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_11</t>
   </si>
   <si>
-    <t>List_19\11_T2_284_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_12</t>
   </si>
   <si>
-    <t>List_19\12_T6_299_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_01</t>
   </si>
   <si>
-    <t>List_19\1_T4_007_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the YARN in the BOX was SOFT</t>
   </si>
   <si>
     <t>19_02</t>
   </si>
   <si>
-    <t>List_19\2_T9_019_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_03</t>
   </si>
   <si>
-    <t>List_19\3_T8_039_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_04</t>
   </si>
   <si>
-    <t>List_19\4_T5_093_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>i WENT with the TEAM to find a TENT</t>
   </si>
   <si>
     <t>19_05</t>
   </si>
   <si>
-    <t>List_19\5_T5_106_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_06</t>
   </si>
   <si>
-    <t>List_19\6_T9_137_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>19_07</t>
   </si>
   <si>
-    <t>List_19\7_T7_165_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>TOSS the WORM back into the PUDDLE</t>
   </si>
   <si>
     <t>19_08</t>
   </si>
   <si>
-    <t>List_19\8_T4_199_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>sometimes i DROOL when i CRAVE MINCE</t>
   </si>
   <si>
     <t>19_09</t>
   </si>
   <si>
-    <t>List_19\9_T9_227_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>CLUTCH your BROOCH tightly on the SHUTTLE</t>
   </si>
   <si>
     <t>20_10</t>
   </si>
   <si>
-    <t>List_20\10_T7_275_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_11</t>
   </si>
   <si>
-    <t>List_20\11_T5_289_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_12</t>
   </si>
   <si>
-    <t>List_20\12_T8_315_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_01</t>
   </si>
   <si>
-    <t>List_20\1_T1_003_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_02</t>
   </si>
   <si>
-    <t>List_20\2_T9_051_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_03</t>
   </si>
   <si>
-    <t>List_20\3_T3_075_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the DOG slid on the WET LEAVES</t>
   </si>
   <si>
     <t>20_04</t>
   </si>
   <si>
-    <t>List_20\4_T5_134_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_05</t>
   </si>
   <si>
-    <t>List_20\5_T2_139_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_06</t>
   </si>
   <si>
-    <t>List_20\6_T6_143_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>20_07</t>
   </si>
   <si>
-    <t>List_20\7_T6_166_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>his CLEAT made a SNAG in his CLOAK</t>
   </si>
   <si>
     <t>20_08</t>
   </si>
   <si>
-    <t>List_20\8_T3_198_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>use a LURE to DROWN the TROLL</t>
   </si>
   <si>
     <t>20_09</t>
   </si>
   <si>
-    <t>List_20\9_T5_232_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the CARP will SPAWN in a GROOVE</t>
   </si>
   <si>
     <t>21_10</t>
   </si>
   <si>
-    <t>List_21\10_T4_279_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_11</t>
   </si>
   <si>
-    <t>List_21\11_T9_306_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the GULL will PECK at the KITE</t>
   </si>
   <si>
     <t>21_12</t>
   </si>
   <si>
-    <t>List_21\12_T2_308_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_01</t>
   </si>
   <si>
-    <t>List_21\1_T10_011_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_02</t>
   </si>
   <si>
-    <t>List_21\2_T1_040_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_03</t>
   </si>
   <si>
-    <t>List_21\3_T5_055_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_04</t>
   </si>
   <si>
-    <t>List_21\4_T9_082_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_05</t>
   </si>
   <si>
-    <t>List_21\5_T2_117_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_06</t>
   </si>
   <si>
-    <t>List_21\6_T10_148_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_07</t>
   </si>
   <si>
-    <t>List_21\7_T5_162_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he SPAT at the CLAN when he got STUNG</t>
   </si>
   <si>
     <t>21_08</t>
   </si>
   <si>
-    <t>List_21\8_T10_172_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>21_09</t>
   </si>
   <si>
-    <t>List_21\9_T7_182_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the three LEGGED dog would YELP as it SWAM</t>
   </si>
   <si>
     <t>22_10</t>
   </si>
   <si>
-    <t>List_22\10_T1_252_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_11</t>
   </si>
   <si>
-    <t>List_22\11_T8_298_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_12</t>
   </si>
   <si>
-    <t>List_22\12_T4_309_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_01</t>
   </si>
   <si>
-    <t>List_22\1_T2_008_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_02</t>
   </si>
   <si>
-    <t>List_22\2_T3_018_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_03</t>
   </si>
   <si>
-    <t>List_22\3_T9_025_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_04</t>
   </si>
   <si>
-    <t>List_22\4_T4_114_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_05</t>
   </si>
   <si>
-    <t>List_22\5_T10_132_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_06</t>
   </si>
   <si>
-    <t>List_22\6_T1_153_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_07</t>
   </si>
   <si>
-    <t>List_22\7_T7_163_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he KNELT to GREET the king in the CASTLE</t>
   </si>
   <si>
     <t>22_08</t>
   </si>
   <si>
-    <t>List_22\8_T7_181_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>22_09</t>
   </si>
   <si>
-    <t>List_22\9_T3_238_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_10</t>
   </si>
   <si>
-    <t>List_23\10_T9_247_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_11</t>
   </si>
   <si>
-    <t>List_23\11_T5_263_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_12</t>
   </si>
   <si>
-    <t>List_23\12_T6_315_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_01</t>
   </si>
   <si>
-    <t>List_23\1_T3_022_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_02</t>
   </si>
   <si>
-    <t>List_23\2_T5_031_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the BREEZE helped to CLEAR the FOG</t>
   </si>
   <si>
     <t>23_03</t>
   </si>
   <si>
-    <t>List_23\3_T1_071_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_04</t>
   </si>
   <si>
-    <t>List_23\4_T3_094_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_05</t>
   </si>
   <si>
-    <t>List_23\5_T5_127_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_06</t>
   </si>
   <si>
-    <t>List_23\6_T9_152_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_07</t>
   </si>
   <si>
-    <t>List_23\7_T7_161_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_08</t>
   </si>
   <si>
-    <t>List_23\8_T5_217_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>23_09</t>
   </si>
   <si>
-    <t>List_23\9_T9_220_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he SHAVES with KNIVES and soap SUDS</t>
   </si>
   <si>
     <t>24_10</t>
   </si>
   <si>
-    <t>List_24\10_T6_251_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_11</t>
   </si>
   <si>
-    <t>List_24\11_T5_265_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_12</t>
   </si>
   <si>
-    <t>List_24\12_T4_271_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_01</t>
   </si>
   <si>
-    <t>List_24\1_T2_010_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_02</t>
   </si>
   <si>
-    <t>List_24\2_T3_056_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_03</t>
   </si>
   <si>
-    <t>List_24\3_T7_073_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_04</t>
   </si>
   <si>
-    <t>List_24\4_T4_105_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>the MAP is on the DECK of the SHIP</t>
   </si>
   <si>
     <t>24_05</t>
   </si>
   <si>
-    <t>List_24\5_T9_142_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_06</t>
   </si>
   <si>
-    <t>List_24\6_T1_160_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_07</t>
   </si>
   <si>
-    <t>List_24\7_T1_211_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>don’t SPOOK the birds that ROOST in the LOFT</t>
   </si>
   <si>
     <t>24_08</t>
   </si>
   <si>
-    <t>List_24\8_T4_227_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>24_09</t>
   </si>
   <si>
-    <t>List_24\9_T3_230_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_10</t>
   </si>
   <si>
-    <t>List_25\10_T9_241_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_11</t>
   </si>
   <si>
-    <t>List_25\11_T2_297_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_12</t>
   </si>
   <si>
-    <t>List_25\12_T3_306_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_01</t>
   </si>
   <si>
-    <t>List_25\1_T6_006_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_02</t>
   </si>
   <si>
-    <t>List_25\2_T5_075_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_03</t>
   </si>
   <si>
-    <t>List_25\3_T5_080_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>TEACH the bull to RUN on the SAND</t>
   </si>
   <si>
     <t>25_04</t>
   </si>
   <si>
-    <t>List_25\4_T3_099_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>he SANK the CLAY cup in the TUB</t>
   </si>
   <si>
     <t>25_05</t>
   </si>
   <si>
-    <t>List_25\5_T7_101_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_06</t>
   </si>
   <si>
-    <t>List_25\6_T2_129_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>PART of the STAKE has been BENT</t>
   </si>
   <si>
     <t>25_07</t>
   </si>
   <si>
-    <t>List_25\7_T3_163_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_08</t>
   </si>
   <si>
-    <t>List_25\8_T8_170_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>25_09</t>
   </si>
   <si>
-    <t>List_25\9_T7_192_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>NUZZLE the KITTEN with the plastic NIPPLE</t>
   </si>
   <si>
     <t>26_10</t>
   </si>
   <si>
-    <t>List_26\10_T5_251_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_11</t>
   </si>
   <si>
-    <t>List_26\11_T6_276_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_12</t>
   </si>
   <si>
-    <t>List_26\12_T9_290_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_01</t>
   </si>
   <si>
-    <t>List_26\1_T7_031_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_02</t>
   </si>
   <si>
-    <t>List_26\2_T3_059_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_03</t>
   </si>
   <si>
-    <t>List_26\3_T3_077_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_04</t>
   </si>
   <si>
-    <t>List_26\4_T8_133_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_05</t>
   </si>
   <si>
-    <t>List_26\5_T2_147_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_06</t>
   </si>
   <si>
-    <t>List_26\6_T7_148_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_07</t>
   </si>
   <si>
-    <t>List_26\7_T5_185_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_08</t>
   </si>
   <si>
-    <t>List_26\8_T7_203_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>26_09</t>
   </si>
   <si>
-    <t>List_26\9_T4_209_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_10</t>
   </si>
   <si>
-    <t>List_27\10_T1_257_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_11</t>
   </si>
   <si>
-    <t>List_27\11_T3_283_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_12</t>
   </si>
   <si>
-    <t>List_27\12_T4_294_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_01</t>
   </si>
   <si>
-    <t>List_27\1_T6_033_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_02</t>
   </si>
   <si>
-    <t>List_27\2_T5_054_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_03</t>
   </si>
   <si>
-    <t>List_27\3_T6_078_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_04</t>
   </si>
   <si>
-    <t>List_27\4_T7_084_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_05</t>
   </si>
   <si>
-    <t>List_27\5_T3_105_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_06</t>
   </si>
   <si>
-    <t>List_27\6_T3_110_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_07</t>
   </si>
   <si>
-    <t>List_27\7_T1_166_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_08</t>
   </si>
   <si>
-    <t>List_27\8_T3_197_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>27_09</t>
   </si>
   <si>
-    <t>List_27\9_T9_240_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_10</t>
   </si>
   <si>
-    <t>List_28\10_T7_267_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_11</t>
   </si>
   <si>
-    <t>List_28\11_T9_289_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_12</t>
   </si>
   <si>
-    <t>List_28\12_T4_311_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_01</t>
   </si>
   <si>
-    <t>List_28\1_T4_012_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_02</t>
   </si>
   <si>
-    <t>List_28\2_T3_016_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_03</t>
   </si>
   <si>
-    <t>List_28\3_T9_058_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_04</t>
   </si>
   <si>
-    <t>List_28\4_T8_093_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_05</t>
   </si>
   <si>
-    <t>List_28\5_T3_109_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_06</t>
   </si>
   <si>
-    <t>List_28\6_T6_129_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_07</t>
   </si>
   <si>
-    <t>List_28\7_T7_191_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>28_08</t>
   </si>
   <si>
-    <t>List_28\8_T9_207_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>FLOG the WOLF that tore your BLOUSE</t>
   </si>
   <si>
     <t>28_09</t>
   </si>
   <si>
-    <t>List_28\9_T8_220_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_10</t>
   </si>
   <si>
-    <t>List_29\10_T9_269_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_11</t>
   </si>
   <si>
-    <t>List_29\11_T5_283_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_12</t>
   </si>
   <si>
-    <t>List_29\12_T9_312_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_01</t>
   </si>
   <si>
-    <t>List_29\1_T5_007_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_02</t>
   </si>
   <si>
-    <t>List_29\2_T1_051_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_03</t>
   </si>
   <si>
-    <t>List_29\3_T4_068_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_04</t>
   </si>
   <si>
-    <t>List_29\4_T5_109_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_05</t>
   </si>
   <si>
-    <t>List_29\5_T2_130_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_06</t>
   </si>
   <si>
-    <t>List_29\6_T4_142_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_07</t>
   </si>
   <si>
-    <t>List_29\7_T2_162_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_08</t>
   </si>
   <si>
-    <t>List_29\8_T2_186_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>29_09</t>
   </si>
   <si>
-    <t>List_29\9_T5_188_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_10</t>
   </si>
   <si>
-    <t>List_30\10_T1_241_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_11</t>
   </si>
   <si>
-    <t>List_30\11_T3_250_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_12</t>
   </si>
   <si>
-    <t>List_30\12_T1_267_LD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_01</t>
   </si>
   <si>
-    <t>List_30\1_T5_052_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_02</t>
   </si>
   <si>
-    <t>List_30\2_T9_057_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_03</t>
   </si>
   <si>
-    <t>List_30\3_T8_067_HS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_04</t>
   </si>
   <si>
-    <t>List_30\4_T10_090_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_05</t>
   </si>
   <si>
-    <t>List_30\5_T6_100_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_06</t>
   </si>
   <si>
-    <t>List_30\6_T7_155_HD;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_07</t>
   </si>
   <si>
-    <t>List_30\7_T4_196_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>DAB off the ink when you DUNK the QUILL</t>
   </si>
   <si>
     <t>30_08</t>
   </si>
   <si>
-    <t>List_30\8_T9_209_LS;bandpass;+15dB_UW</t>
-  </si>
-  <si>
     <t>30_09</t>
   </si>
   <si>
-    <t>List_30\9_T5_211_LS;bandpass;+15dB_UW</t>
+    <t>List_01\10_T7_284_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\11_T8_292_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\12_T9_309_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\1_T5_046_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\2_T3_051_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\3_T9_071_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\4_T2_085_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\5_T7_126_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\6_T8_155_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\7_T4_200_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\8_T7_208_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_01\9_T5_239_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\10_T8_247_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\11_T6_269_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\12_T10_289_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\1_T10_034_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\2_T9_040_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\3_T2_073_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\4_T4_085_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\5_T4_104_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\6_T2_132_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\7_T9_194_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\8_T4_223_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_02\9_T1_228_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\10_T6_263_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\11_T5_275_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\12_T1_311_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\1_T10_059_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\2_T6_063_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\3_T5_079_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\4_T4_089_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\5_T4_110_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\6_T7_153_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\7_T9_168_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\8_T8_190_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_03\9_T1_197_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\10_T2_267_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\11_T5_276_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\12_T3_315_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\1_T3_006_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\2_T7_017_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\3_T6_068_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\4_T7_106_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\5_T5_114_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\6_T9_124_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\7_T10_205_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\8_T4_224_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_04\9_T7_240_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\10_T9_250_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\11_T3_279_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\12_T5_320_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\1_T7_003_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\2_T4_072_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\3_T7_077_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\4_T1_089_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\5_T4_109_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\6_T4_127_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\7_T3_212_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\8_T1_221_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_05\9_T7_238_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\10_T1_265_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\11_T10_282_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\12_T1_308_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\1_T4_047_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\2_T9_060_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\3_T5_078_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\4_T3_141_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\5_T9_143_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\6_T3_152_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\7_T6_181_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\8_T3_229_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_06\9_T1_234_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\10_T10_274_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\11_T1_282_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\12_T4_313_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\1_T8_011_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\2_T6_054_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\3_T7_057_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\4_T2_098_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\5_T9_119_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\6_T8_134_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\7_T2_161_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\8_T3_164_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_07\9_T3_180_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\10_T3_241_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\11_T1_271_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\12_T9_298_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\1_T9_033_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\2_T5_041_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\3_T4_052_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\4_T7_094_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\5_T4_139_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\6_T7_147_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\7_T3_191_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\8_T7_201_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_08\9_T10_217_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\10_T5_245_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\11_T7_294_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\12_T3_299_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\1_T6_020_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\2_T3_055_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\3_T1_056_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\4_T5_100_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\5_T4_133_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\6_T9_158_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\7_T7_215_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\8_T4_216_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_09\9_T6_236_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\10_T3_251_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\11_T2_287_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\12_T5_308_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\1_T9_013_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\2_T2_018_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\3_T5_044_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\4_T6_101_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\5_T5_116_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\6_T1_126_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\7_T4_168_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\8_T3_201_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_10\9_T1_205_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\10_T9_242_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\11_T5_252_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\12_T6_268_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\1_T9_010_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\2_T8_024_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\3_T4_063_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\4_T1_082_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\5_T3_090_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\6_T8_130_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\7_T4_185_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\8_T9_193_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_11\9_T6_202_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\10_T3_247_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\11_T7_260_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\12_T3_209_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\1_T7_013_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\2_T1_016_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\3_T3_032_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\4_T1_087_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\5_T1_142_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\6_T5_148_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\7_T5_195_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\8_T3_210_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_12\9_T1_236_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\10_T4_276_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\11_T7_297_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\12_T6_311_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\1_T1_025_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\2_T4_044_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\3_T3_048_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\4_T5_087_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\5_T9_092_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\6_T9_104_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\7_T3_206_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\8_T5_219_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_13\9_T9_226_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\10_T7_265_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\11_T5_274_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\12_T3_320_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\1_T1_019_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\2_T5_034_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\3_T7_067_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\4_T10_084_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\5_T4_116_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\6_T2_135_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\7_T1_174_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\8_T4_188_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_14\9_T6_203_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\10_T1_268_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\11_T2_290_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\12_T5_294_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\1_T9_008_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\2_T3_039_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\3_T8_050_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\4_T3_115_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\5_T5_140_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\6_T6_160_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\7_T9_178_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\8_T4_186_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_15\9_T2_235_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\10_T3_275_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\11_T1_283_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\12_T4_292_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\1_T6_017_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\2_T4_020_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\3_T9_022_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\4_T10_119_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\5_T9_141_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\6_T9_147_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\7_T3_184_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\8_T5_218_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_16\9_T7_230_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\10_T6_245_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\11_T3_312_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\12_T1_313_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\1_T6_047_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\2_T8_058_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\3_T3_072_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\4_T5_124_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\5_T8_132_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\6_T7_137_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\7_T6_170_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\8_T3_172_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_17\9_T7_176_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\10_T7_257_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\11_T4_282_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\12_T5_312_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\1_T2_012_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\2_T4_024_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\3_T1_032_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\4_T10_117_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\5_T9_135_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\6_T3_140_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\7_T9_167_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\8_T6_213_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_18\9_T3_233_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\10_T10_242_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\11_T2_284_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\12_T6_299_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\1_T4_007_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\2_T9_019_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\3_T8_039_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\4_T5_093_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\5_T5_106_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\6_T9_137_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\7_T7_165_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\8_T4_199_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_19\9_T9_227_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\10_T7_275_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\11_T5_289_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\12_T8_315_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\1_T1_003_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\2_T9_051_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\3_T3_075_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\4_T5_134_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\5_T2_139_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\6_T6_143_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\7_T6_166_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\8_T3_198_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_20\9_T5_232_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\10_T4_279_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\11_T9_306_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\12_T2_308_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\1_T10_011_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\2_T1_040_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\3_T5_055_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\4_T9_082_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\5_T2_117_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\6_T10_148_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\7_T5_162_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\8_T10_172_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_21\9_T7_182_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\10_T1_252_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\11_T8_298_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\12_T4_309_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\1_T2_008_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\2_T3_018_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\3_T9_025_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\4_T4_114_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\5_T10_132_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\6_T1_153_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\7_T7_163_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\8_T7_181_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_22\9_T3_238_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\10_T9_247_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\11_T5_263_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\12_T6_315_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\1_T3_022_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\2_T5_031_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\3_T1_071_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\4_T3_094_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\5_T5_127_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\6_T9_152_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\7_T7_161_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\8_T5_217_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_23\9_T9_220_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\10_T6_251_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\11_T5_265_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\12_T4_271_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\1_T2_010_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\2_T3_056_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\3_T7_073_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\4_T4_105_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\5_T9_142_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\6_T1_160_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\7_T1_211_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\8_T4_227_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_24\9_T3_230_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\10_T9_241_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\11_T2_297_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\12_T3_306_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\1_T6_006_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\2_T5_075_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\3_T5_080_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\4_T3_099_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\5_T7_101_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\6_T2_129_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\7_T3_163_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\8_T8_170_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_25\9_T7_192_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\10_T5_251_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\11_T6_276_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\12_T9_290_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\1_T7_031_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\2_T3_059_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\3_T3_077_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\4_T8_133_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\5_T2_147_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\6_T7_148_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\7_T5_185_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\8_T7_203_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_26\9_T4_209_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\10_T1_257_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\11_T3_283_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\12_T4_294_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\1_T6_033_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\2_T5_054_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\3_T6_078_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\4_T7_084_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\5_T3_105_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\6_T3_110_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\7_T1_166_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\8_T3_197_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_27\9_T9_240_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\10_T7_267_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\11_T9_289_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\12_T4_311_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\1_T4_012_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\2_T3_016_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\3_T9_058_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\4_T8_093_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\5_T3_109_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\6_T6_129_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\7_T7_191_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\8_T9_207_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_28\9_T8_220_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\10_T9_269_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\11_T5_283_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\12_T9_312_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\1_T5_007_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\2_T1_051_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\3_T4_068_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\4_T5_109_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\5_T2_130_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\6_T4_142_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\7_T2_162_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\8_T2_186_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_29\9_T5_188_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\10_T1_241_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\11_T3_250_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\12_T1_267_LD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\1_T5_052_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\2_T9_057_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\3_T8_067_HS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\4_T10_090_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\5_T6_100_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\6_T7_155_HD;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\7_T4_196_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\8_T9_209_LS;bandpass;+10dB_UW</t>
+  </si>
+  <si>
+    <t>List_30\9_T5_211_LS;bandpass;+10dB_UW</t>
   </si>
 </sst>
 </file>
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3211,13 +3211,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>567</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3253,13 +3253,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>569</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>570</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>571</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -3295,13 +3295,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>572</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>575</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3351,13 +3351,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>576</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>577</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>579</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>580</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -3421,13 +3421,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>581</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>582</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>583</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3463,13 +3463,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3477,13 +3477,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>585</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -3491,13 +3491,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>586</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3519,13 +3519,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>588</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3533,13 +3533,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>589</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>591</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3575,13 +3575,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>592</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -3589,13 +3589,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>593</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -3603,13 +3603,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>594</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>595</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>596</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>597</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -3659,13 +3659,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>598</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>599</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -3687,13 +3687,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>601</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>602</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>603</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>604</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3757,13 +3757,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>605</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>606</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3785,13 +3785,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>607</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>608</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>609</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3827,13 +3827,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>610</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>611</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3855,13 +3855,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>612</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3869,13 +3869,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>613</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3883,13 +3883,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>614</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3897,13 +3897,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>615</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3911,13 +3911,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>616</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3925,13 +3925,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>617</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>618</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3953,13 +3953,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3967,13 +3967,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>620</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>621</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3995,13 +3995,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>622</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>623</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -4023,13 +4023,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>624</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -4037,13 +4037,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>625</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -4051,13 +4051,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>626</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>627</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4079,13 +4079,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>628</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>629</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4107,13 +4107,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>630</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4121,13 +4121,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4135,13 +4135,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>632</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>633</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -4163,13 +4163,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>634</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -4177,13 +4177,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>635</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -4191,13 +4191,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>636</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -4205,13 +4205,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>637</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4219,13 +4219,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>638</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>639</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>640</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -4261,13 +4261,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>641</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -4275,13 +4275,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>642</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -4289,13 +4289,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>643</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4303,13 +4303,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>644</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -4317,13 +4317,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>645</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -4331,13 +4331,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>646</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>648</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -4373,13 +4373,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>649</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4387,13 +4387,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>650</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>651</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -4415,13 +4415,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>652</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>653</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>654</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>655</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>656</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -4485,13 +4485,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>657</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -4499,13 +4499,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>658</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -4513,13 +4513,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>659</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>660</v>
       </c>
       <c r="C101" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -4541,13 +4541,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>661</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>662</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -4569,13 +4569,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>663</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -4583,13 +4583,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>664</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -4597,13 +4597,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>665</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -4611,13 +4611,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>666</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -4625,13 +4625,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>667</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -4639,13 +4639,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>668</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -4653,13 +4653,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
+        <v>669</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -4667,13 +4667,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>670</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>671</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -4695,13 +4695,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>672</v>
       </c>
       <c r="C113" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -4709,13 +4709,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>673</v>
       </c>
       <c r="C114" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -4723,13 +4723,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>674</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -4737,13 +4737,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>675</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -4751,13 +4751,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="B117" t="s">
-        <v>345</v>
+        <v>676</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -4765,13 +4765,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>677</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -4779,13 +4779,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>678</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -4793,13 +4793,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>353</v>
+        <v>679</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -4807,13 +4807,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>355</v>
+        <v>680</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -4821,13 +4821,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>681</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -4835,13 +4835,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="C123" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>683</v>
       </c>
       <c r="C124" t="s">
-        <v>363</v>
+        <v>241</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>684</v>
       </c>
       <c r="C125" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -4877,13 +4877,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>685</v>
       </c>
       <c r="C126" t="s">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
+        <v>686</v>
       </c>
       <c r="C127" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
+        <v>687</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -4919,13 +4919,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>688</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -4933,13 +4933,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>379</v>
+        <v>689</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -4947,13 +4947,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>382</v>
+        <v>690</v>
       </c>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="B132" t="s">
-        <v>385</v>
+        <v>691</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>388</v>
+        <v>692</v>
       </c>
       <c r="C133" t="s">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>390</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>693</v>
       </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -5003,13 +5003,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>393</v>
+        <v>261</v>
       </c>
       <c r="B135" t="s">
-        <v>394</v>
+        <v>694</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -5017,13 +5017,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>396</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>263</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -5031,13 +5031,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>399</v>
+        <v>696</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -5045,13 +5045,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>402</v>
+        <v>697</v>
       </c>
       <c r="C138" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="B139" t="s">
-        <v>404</v>
+        <v>698</v>
       </c>
       <c r="C139" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -5073,13 +5073,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>699</v>
       </c>
       <c r="C140" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -5087,13 +5087,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>409</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>700</v>
       </c>
       <c r="C141" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -5101,13 +5101,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>701</v>
       </c>
       <c r="C142" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -5115,13 +5115,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>415</v>
+        <v>275</v>
       </c>
       <c r="B143" t="s">
-        <v>416</v>
+        <v>702</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -5129,13 +5129,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="B144" t="s">
-        <v>419</v>
+        <v>703</v>
       </c>
       <c r="C144" t="s">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>704</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -5157,13 +5157,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="C146" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -5171,13 +5171,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>426</v>
+        <v>282</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>706</v>
       </c>
       <c r="C147" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -5185,13 +5185,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>428</v>
+        <v>283</v>
       </c>
       <c r="B148" t="s">
-        <v>429</v>
+        <v>707</v>
       </c>
       <c r="C148" t="s">
-        <v>430</v>
+        <v>284</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -5199,13 +5199,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>431</v>
+        <v>285</v>
       </c>
       <c r="B149" t="s">
-        <v>432</v>
+        <v>708</v>
       </c>
       <c r="C149" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="B150" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="C150" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -5227,13 +5227,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="B151" t="s">
-        <v>437</v>
+        <v>710</v>
       </c>
       <c r="C151" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -5241,13 +5241,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="B152" t="s">
-        <v>439</v>
+        <v>711</v>
       </c>
       <c r="C152" t="s">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -5255,13 +5255,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="B153" t="s">
-        <v>442</v>
+        <v>712</v>
       </c>
       <c r="C153" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -5269,13 +5269,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>443</v>
+        <v>292</v>
       </c>
       <c r="B154" t="s">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="C154" t="s">
-        <v>445</v>
+        <v>293</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -5283,13 +5283,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>294</v>
       </c>
       <c r="B155" t="s">
-        <v>447</v>
+        <v>714</v>
       </c>
       <c r="C155" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -5297,13 +5297,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="B156" t="s">
-        <v>449</v>
+        <v>715</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
+        <v>296</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5311,13 +5311,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>451</v>
+        <v>297</v>
       </c>
       <c r="B157" t="s">
-        <v>452</v>
+        <v>716</v>
       </c>
       <c r="C157" t="s">
-        <v>453</v>
+        <v>298</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -5325,13 +5325,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>454</v>
+        <v>299</v>
       </c>
       <c r="B158" t="s">
-        <v>455</v>
+        <v>717</v>
       </c>
       <c r="C158" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -5339,13 +5339,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>718</v>
       </c>
       <c r="C159" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -5353,13 +5353,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>459</v>
+        <v>302</v>
       </c>
       <c r="B160" t="s">
-        <v>460</v>
+        <v>719</v>
       </c>
       <c r="C160" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -5367,13 +5367,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="B161" t="s">
-        <v>462</v>
+        <v>720</v>
       </c>
       <c r="C161" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -5381,13 +5381,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>463</v>
+        <v>304</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>721</v>
       </c>
       <c r="C162" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -5395,13 +5395,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="B163" t="s">
-        <v>467</v>
+        <v>722</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -5409,13 +5409,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="B164" t="s">
-        <v>469</v>
+        <v>723</v>
       </c>
       <c r="C164" t="s">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -5423,13 +5423,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>471</v>
+        <v>309</v>
       </c>
       <c r="B165" t="s">
-        <v>472</v>
+        <v>724</v>
       </c>
       <c r="C165" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -5437,13 +5437,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="B166" t="s">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="C166" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -5451,13 +5451,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>476</v>
+        <v>312</v>
       </c>
       <c r="B167" t="s">
-        <v>477</v>
+        <v>726</v>
       </c>
       <c r="C167" t="s">
-        <v>478</v>
+        <v>313</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -5465,13 +5465,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>479</v>
+        <v>314</v>
       </c>
       <c r="B168" t="s">
-        <v>480</v>
+        <v>727</v>
       </c>
       <c r="C168" t="s">
-        <v>481</v>
+        <v>315</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>482</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>483</v>
+        <v>728</v>
       </c>
       <c r="C169" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>485</v>
+        <v>318</v>
       </c>
       <c r="B170" t="s">
-        <v>486</v>
+        <v>729</v>
       </c>
       <c r="C170" t="s">
-        <v>487</v>
+        <v>319</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -5507,13 +5507,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>488</v>
+        <v>320</v>
       </c>
       <c r="B171" t="s">
-        <v>489</v>
+        <v>730</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>490</v>
+        <v>321</v>
       </c>
       <c r="B172" t="s">
-        <v>491</v>
+        <v>731</v>
       </c>
       <c r="C172" t="s">
-        <v>492</v>
+        <v>322</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -5535,13 +5535,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>493</v>
+        <v>323</v>
       </c>
       <c r="B173" t="s">
-        <v>494</v>
+        <v>732</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>495</v>
+        <v>324</v>
       </c>
       <c r="B174" t="s">
-        <v>496</v>
+        <v>733</v>
       </c>
       <c r="C174" t="s">
-        <v>497</v>
+        <v>325</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -5563,13 +5563,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>498</v>
+        <v>326</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>734</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -5577,13 +5577,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>501</v>
+        <v>328</v>
       </c>
       <c r="B176" t="s">
-        <v>502</v>
+        <v>735</v>
       </c>
       <c r="C176" t="s">
-        <v>503</v>
+        <v>329</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="B177" t="s">
-        <v>505</v>
+        <v>736</v>
       </c>
       <c r="C177" t="s">
-        <v>506</v>
+        <v>331</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>737</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -5619,13 +5619,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
       <c r="B179" t="s">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>335</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -5633,13 +5633,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>513</v>
+        <v>336</v>
       </c>
       <c r="B180" t="s">
-        <v>514</v>
+        <v>739</v>
       </c>
       <c r="C180" t="s">
-        <v>515</v>
+        <v>337</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -5647,13 +5647,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>516</v>
+        <v>338</v>
       </c>
       <c r="B181" t="s">
-        <v>517</v>
+        <v>740</v>
       </c>
       <c r="C181" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -5661,13 +5661,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>519</v>
+        <v>340</v>
       </c>
       <c r="B182" t="s">
-        <v>520</v>
+        <v>741</v>
       </c>
       <c r="C182" t="s">
-        <v>521</v>
+        <v>341</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -5675,13 +5675,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>522</v>
+        <v>342</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>742</v>
       </c>
       <c r="C183" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -5689,13 +5689,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>524</v>
+        <v>343</v>
       </c>
       <c r="B184" t="s">
-        <v>525</v>
+        <v>743</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>344</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -5703,13 +5703,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>527</v>
+        <v>345</v>
       </c>
       <c r="B185" t="s">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>529</v>
+        <v>346</v>
       </c>
       <c r="B186" t="s">
-        <v>530</v>
+        <v>745</v>
       </c>
       <c r="C186" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>531</v>
+        <v>347</v>
       </c>
       <c r="B187" t="s">
-        <v>532</v>
+        <v>746</v>
       </c>
       <c r="C187" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -5745,13 +5745,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>533</v>
+        <v>348</v>
       </c>
       <c r="B188" t="s">
-        <v>534</v>
+        <v>747</v>
       </c>
       <c r="C188" t="s">
-        <v>535</v>
+        <v>349</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>536</v>
+        <v>350</v>
       </c>
       <c r="B189" t="s">
-        <v>537</v>
+        <v>748</v>
       </c>
       <c r="C189" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -5773,13 +5773,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>538</v>
+        <v>351</v>
       </c>
       <c r="B190" t="s">
-        <v>539</v>
+        <v>749</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -5787,13 +5787,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>540</v>
+        <v>352</v>
       </c>
       <c r="B191" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="C191" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -5801,13 +5801,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>542</v>
+        <v>353</v>
       </c>
       <c r="B192" t="s">
-        <v>543</v>
+        <v>751</v>
       </c>
       <c r="C192" t="s">
-        <v>544</v>
+        <v>354</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -5815,13 +5815,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>545</v>
+        <v>355</v>
       </c>
       <c r="B193" t="s">
-        <v>546</v>
+        <v>752</v>
       </c>
       <c r="C193" t="s">
-        <v>547</v>
+        <v>356</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>548</v>
+        <v>357</v>
       </c>
       <c r="B194" t="s">
-        <v>549</v>
+        <v>753</v>
       </c>
       <c r="C194" t="s">
-        <v>550</v>
+        <v>358</v>
       </c>
       <c r="D194">
         <v>3</v>
@@ -5843,13 +5843,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>551</v>
+        <v>359</v>
       </c>
       <c r="B195" t="s">
-        <v>552</v>
+        <v>754</v>
       </c>
       <c r="C195" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -5857,13 +5857,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>553</v>
+        <v>360</v>
       </c>
       <c r="B196" t="s">
-        <v>554</v>
+        <v>755</v>
       </c>
       <c r="C196" t="s">
-        <v>555</v>
+        <v>361</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -5871,13 +5871,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>556</v>
+        <v>362</v>
       </c>
       <c r="B197" t="s">
-        <v>557</v>
+        <v>756</v>
       </c>
       <c r="C197" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -5885,13 +5885,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>558</v>
+        <v>363</v>
       </c>
       <c r="B198" t="s">
-        <v>559</v>
+        <v>757</v>
       </c>
       <c r="C198" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="B199" t="s">
-        <v>561</v>
+        <v>758</v>
       </c>
       <c r="C199" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -5913,13 +5913,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>563</v>
+        <v>366</v>
       </c>
       <c r="B200" t="s">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -5927,13 +5927,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>565</v>
+        <v>367</v>
       </c>
       <c r="B201" t="s">
-        <v>566</v>
+        <v>760</v>
       </c>
       <c r="C201" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -5941,13 +5941,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>567</v>
+        <v>368</v>
       </c>
       <c r="B202" t="s">
-        <v>568</v>
+        <v>761</v>
       </c>
       <c r="C202" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -5955,13 +5955,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>569</v>
+        <v>369</v>
       </c>
       <c r="B203" t="s">
-        <v>570</v>
+        <v>762</v>
       </c>
       <c r="C203" t="s">
-        <v>571</v>
+        <v>370</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -5969,13 +5969,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>572</v>
+        <v>371</v>
       </c>
       <c r="B204" t="s">
-        <v>573</v>
+        <v>763</v>
       </c>
       <c r="C204" t="s">
-        <v>574</v>
+        <v>372</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -5983,13 +5983,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>575</v>
+        <v>373</v>
       </c>
       <c r="B205" t="s">
-        <v>576</v>
+        <v>764</v>
       </c>
       <c r="C205" t="s">
-        <v>577</v>
+        <v>374</v>
       </c>
       <c r="D205">
         <v>3</v>
@@ -5997,13 +5997,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>578</v>
+        <v>375</v>
       </c>
       <c r="B206" t="s">
-        <v>579</v>
+        <v>765</v>
       </c>
       <c r="C206" t="s">
-        <v>580</v>
+        <v>376</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -6011,13 +6011,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
       <c r="B207" t="s">
-        <v>582</v>
+        <v>766</v>
       </c>
       <c r="C207" t="s">
-        <v>583</v>
+        <v>378</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -6025,13 +6025,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>584</v>
+        <v>379</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>767</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>586</v>
+        <v>380</v>
       </c>
       <c r="B209" t="s">
-        <v>587</v>
+        <v>768</v>
       </c>
       <c r="C209" t="s">
-        <v>555</v>
+        <v>361</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -6053,13 +6053,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>588</v>
+        <v>381</v>
       </c>
       <c r="B210" t="s">
-        <v>589</v>
+        <v>769</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="D210">
         <v>3</v>
@@ -6067,13 +6067,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>591</v>
+        <v>383</v>
       </c>
       <c r="B211" t="s">
-        <v>592</v>
+        <v>770</v>
       </c>
       <c r="C211" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>593</v>
+        <v>384</v>
       </c>
       <c r="B212" t="s">
-        <v>594</v>
+        <v>771</v>
       </c>
       <c r="C212" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -6095,13 +6095,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>595</v>
+        <v>385</v>
       </c>
       <c r="B213" t="s">
-        <v>596</v>
+        <v>772</v>
       </c>
       <c r="C213" t="s">
-        <v>597</v>
+        <v>386</v>
       </c>
       <c r="D213">
         <v>3</v>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>598</v>
+        <v>387</v>
       </c>
       <c r="B214" t="s">
-        <v>599</v>
+        <v>773</v>
       </c>
       <c r="C214" t="s">
-        <v>478</v>
+        <v>313</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -6123,13 +6123,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>600</v>
+        <v>388</v>
       </c>
       <c r="B215" t="s">
-        <v>601</v>
+        <v>774</v>
       </c>
       <c r="C215" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="D215">
         <v>3</v>
@@ -6137,13 +6137,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>602</v>
+        <v>389</v>
       </c>
       <c r="B216" t="s">
-        <v>603</v>
+        <v>775</v>
       </c>
       <c r="C216" t="s">
-        <v>604</v>
+        <v>390</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -6151,13 +6151,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>605</v>
+        <v>391</v>
       </c>
       <c r="B217" t="s">
-        <v>606</v>
+        <v>776</v>
       </c>
       <c r="C217" t="s">
-        <v>607</v>
+        <v>392</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -6165,13 +6165,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>608</v>
+        <v>393</v>
       </c>
       <c r="B218" t="s">
-        <v>609</v>
+        <v>777</v>
       </c>
       <c r="C218" t="s">
-        <v>610</v>
+        <v>394</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -6179,13 +6179,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>611</v>
+        <v>395</v>
       </c>
       <c r="B219" t="s">
-        <v>612</v>
+        <v>778</v>
       </c>
       <c r="C219" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>613</v>
+        <v>396</v>
       </c>
       <c r="B220" t="s">
-        <v>614</v>
+        <v>779</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D220">
         <v>3</v>
@@ -6207,13 +6207,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>615</v>
+        <v>397</v>
       </c>
       <c r="B221" t="s">
-        <v>616</v>
+        <v>780</v>
       </c>
       <c r="C221" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -6221,13 +6221,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>617</v>
+        <v>398</v>
       </c>
       <c r="B222" t="s">
-        <v>618</v>
+        <v>781</v>
       </c>
       <c r="C222" t="s">
-        <v>619</v>
+        <v>399</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -6235,13 +6235,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="B223" t="s">
-        <v>621</v>
+        <v>782</v>
       </c>
       <c r="C223" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -6249,13 +6249,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>622</v>
+        <v>401</v>
       </c>
       <c r="B224" t="s">
-        <v>623</v>
+        <v>783</v>
       </c>
       <c r="C224" t="s">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -6263,13 +6263,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>624</v>
+        <v>402</v>
       </c>
       <c r="B225" t="s">
-        <v>625</v>
+        <v>784</v>
       </c>
       <c r="C225" t="s">
-        <v>626</v>
+        <v>403</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -6277,13 +6277,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>627</v>
+        <v>404</v>
       </c>
       <c r="B226" t="s">
-        <v>628</v>
+        <v>785</v>
       </c>
       <c r="C226" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -6291,13 +6291,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>629</v>
+        <v>405</v>
       </c>
       <c r="B227" t="s">
-        <v>630</v>
+        <v>786</v>
       </c>
       <c r="C227" t="s">
-        <v>571</v>
+        <v>370</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -6305,13 +6305,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>631</v>
+        <v>406</v>
       </c>
       <c r="B228" t="s">
-        <v>632</v>
+        <v>787</v>
       </c>
       <c r="C228" t="s">
-        <v>633</v>
+        <v>407</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -6319,13 +6319,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>634</v>
+        <v>408</v>
       </c>
       <c r="B229" t="s">
-        <v>635</v>
+        <v>788</v>
       </c>
       <c r="C229" t="s">
-        <v>636</v>
+        <v>409</v>
       </c>
       <c r="D229">
         <v>3</v>
@@ -6333,13 +6333,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>637</v>
+        <v>410</v>
       </c>
       <c r="B230" t="s">
-        <v>638</v>
+        <v>789</v>
       </c>
       <c r="C230" t="s">
-        <v>639</v>
+        <v>411</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -6347,13 +6347,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>640</v>
+        <v>412</v>
       </c>
       <c r="B231" t="s">
-        <v>641</v>
+        <v>790</v>
       </c>
       <c r="C231" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D231">
         <v>3</v>
@@ -6361,13 +6361,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>642</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
-        <v>643</v>
+        <v>791</v>
       </c>
       <c r="C232" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D232">
         <v>3</v>
@@ -6375,13 +6375,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>644</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
-        <v>645</v>
+        <v>792</v>
       </c>
       <c r="C233" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D233">
         <v>3</v>
@@ -6389,13 +6389,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>646</v>
+        <v>415</v>
       </c>
       <c r="B234" t="s">
-        <v>647</v>
+        <v>793</v>
       </c>
       <c r="C234" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -6403,13 +6403,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>648</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
-        <v>649</v>
+        <v>794</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -6417,13 +6417,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="B236" t="s">
-        <v>651</v>
+        <v>795</v>
       </c>
       <c r="C236" t="s">
-        <v>652</v>
+        <v>418</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -6431,13 +6431,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>653</v>
+        <v>419</v>
       </c>
       <c r="B237" t="s">
-        <v>654</v>
+        <v>796</v>
       </c>
       <c r="C237" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="D237">
         <v>3</v>
@@ -6445,13 +6445,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>655</v>
+        <v>420</v>
       </c>
       <c r="B238" t="s">
-        <v>656</v>
+        <v>797</v>
       </c>
       <c r="C238" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -6459,13 +6459,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>657</v>
+        <v>421</v>
       </c>
       <c r="B239" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C239" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -6473,13 +6473,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>659</v>
+        <v>422</v>
       </c>
       <c r="B240" t="s">
-        <v>660</v>
+        <v>799</v>
       </c>
       <c r="C240" t="s">
-        <v>661</v>
+        <v>423</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -6487,13 +6487,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>662</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
-        <v>663</v>
+        <v>800</v>
       </c>
       <c r="C241" t="s">
-        <v>664</v>
+        <v>425</v>
       </c>
       <c r="D241">
         <v>3</v>
@@ -6501,13 +6501,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>665</v>
+        <v>426</v>
       </c>
       <c r="B242" t="s">
-        <v>666</v>
+        <v>801</v>
       </c>
       <c r="C242" t="s">
-        <v>667</v>
+        <v>427</v>
       </c>
       <c r="D242">
         <v>3</v>
@@ -6515,13 +6515,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>668</v>
+        <v>428</v>
       </c>
       <c r="B243" t="s">
-        <v>669</v>
+        <v>802</v>
       </c>
       <c r="C243" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>670</v>
+        <v>429</v>
       </c>
       <c r="B244" t="s">
-        <v>671</v>
+        <v>803</v>
       </c>
       <c r="C244" t="s">
-        <v>672</v>
+        <v>430</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -6543,13 +6543,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>673</v>
+        <v>431</v>
       </c>
       <c r="B245" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="C245" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D245">
         <v>3</v>
@@ -6557,13 +6557,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>675</v>
+        <v>432</v>
       </c>
       <c r="B246" t="s">
-        <v>676</v>
+        <v>805</v>
       </c>
       <c r="C246" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="D246">
         <v>3</v>
@@ -6571,13 +6571,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>677</v>
+        <v>433</v>
       </c>
       <c r="B247" t="s">
-        <v>678</v>
+        <v>806</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D247">
         <v>3</v>
@@ -6585,13 +6585,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>679</v>
+        <v>434</v>
       </c>
       <c r="B248" t="s">
-        <v>680</v>
+        <v>807</v>
       </c>
       <c r="C248" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -6599,13 +6599,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>681</v>
+        <v>435</v>
       </c>
       <c r="B249" t="s">
-        <v>682</v>
+        <v>808</v>
       </c>
       <c r="C249" t="s">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -6613,13 +6613,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>683</v>
+        <v>436</v>
       </c>
       <c r="B250" t="s">
-        <v>684</v>
+        <v>809</v>
       </c>
       <c r="C250" t="s">
-        <v>597</v>
+        <v>386</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -6627,13 +6627,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>685</v>
+        <v>437</v>
       </c>
       <c r="B251" t="s">
-        <v>686</v>
+        <v>810</v>
       </c>
       <c r="C251" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="D251">
         <v>3</v>
@@ -6641,13 +6641,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>687</v>
+        <v>438</v>
       </c>
       <c r="B252" t="s">
-        <v>688</v>
+        <v>811</v>
       </c>
       <c r="C252" t="s">
-        <v>689</v>
+        <v>439</v>
       </c>
       <c r="D252">
         <v>3</v>
@@ -6655,13 +6655,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="B253" t="s">
-        <v>691</v>
+        <v>812</v>
       </c>
       <c r="C253" t="s">
-        <v>577</v>
+        <v>374</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -6669,13 +6669,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>692</v>
+        <v>441</v>
       </c>
       <c r="B254" t="s">
-        <v>693</v>
+        <v>813</v>
       </c>
       <c r="C254" t="s">
-        <v>694</v>
+        <v>442</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -6683,13 +6683,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>695</v>
+        <v>443</v>
       </c>
       <c r="B255" t="s">
-        <v>696</v>
+        <v>814</v>
       </c>
       <c r="C255" t="s">
-        <v>363</v>
+        <v>241</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -6697,13 +6697,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>697</v>
+        <v>444</v>
       </c>
       <c r="B256" t="s">
-        <v>698</v>
+        <v>815</v>
       </c>
       <c r="C256" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -6711,13 +6711,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>699</v>
+        <v>445</v>
       </c>
       <c r="B257" t="s">
-        <v>700</v>
+        <v>816</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -6725,13 +6725,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>701</v>
+        <v>446</v>
       </c>
       <c r="B258" t="s">
-        <v>702</v>
+        <v>817</v>
       </c>
       <c r="C258" t="s">
-        <v>497</v>
+        <v>325</v>
       </c>
       <c r="D258">
         <v>3</v>
@@ -6739,13 +6739,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>703</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -6753,13 +6753,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>705</v>
+        <v>448</v>
       </c>
       <c r="B260" t="s">
-        <v>706</v>
+        <v>819</v>
       </c>
       <c r="C260" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>707</v>
+        <v>449</v>
       </c>
       <c r="B261" t="s">
-        <v>708</v>
+        <v>820</v>
       </c>
       <c r="C261" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -6781,13 +6781,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>709</v>
+        <v>450</v>
       </c>
       <c r="B262" t="s">
-        <v>710</v>
+        <v>821</v>
       </c>
       <c r="C262" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -6795,13 +6795,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>711</v>
+        <v>451</v>
       </c>
       <c r="B263" t="s">
-        <v>712</v>
+        <v>822</v>
       </c>
       <c r="C263" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D263">
         <v>3</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>713</v>
+        <v>452</v>
       </c>
       <c r="B264" t="s">
-        <v>714</v>
+        <v>823</v>
       </c>
       <c r="C264" t="s">
-        <v>715</v>
+        <v>453</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -6823,13 +6823,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>716</v>
+        <v>454</v>
       </c>
       <c r="B265" t="s">
-        <v>717</v>
+        <v>824</v>
       </c>
       <c r="C265" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -6837,13 +6837,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>718</v>
+        <v>455</v>
       </c>
       <c r="B266" t="s">
-        <v>719</v>
+        <v>825</v>
       </c>
       <c r="C266" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -6851,13 +6851,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>720</v>
+        <v>456</v>
       </c>
       <c r="B267" t="s">
-        <v>721</v>
+        <v>826</v>
       </c>
       <c r="C267" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -6865,13 +6865,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>722</v>
+        <v>457</v>
       </c>
       <c r="B268" t="s">
-        <v>723</v>
+        <v>827</v>
       </c>
       <c r="C268" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -6879,13 +6879,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>724</v>
+        <v>458</v>
       </c>
       <c r="B269" t="s">
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="C269" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -6893,13 +6893,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>726</v>
+        <v>459</v>
       </c>
       <c r="B270" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
       <c r="C270" t="s">
-        <v>535</v>
+        <v>349</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -6907,13 +6907,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>728</v>
+        <v>460</v>
       </c>
       <c r="B271" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="C271" t="s">
-        <v>730</v>
+        <v>461</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -6921,13 +6921,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>731</v>
+        <v>462</v>
       </c>
       <c r="B272" t="s">
-        <v>732</v>
+        <v>831</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>733</v>
+        <v>463</v>
       </c>
       <c r="B273" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -6949,13 +6949,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>735</v>
+        <v>464</v>
       </c>
       <c r="B274" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="C274" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -6963,13 +6963,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>737</v>
+        <v>465</v>
       </c>
       <c r="B275" t="s">
-        <v>738</v>
+        <v>834</v>
       </c>
       <c r="C275" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -6977,13 +6977,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>739</v>
+        <v>466</v>
       </c>
       <c r="B276" t="s">
-        <v>740</v>
+        <v>835</v>
       </c>
       <c r="C276" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>741</v>
+        <v>467</v>
       </c>
       <c r="B277" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -7005,13 +7005,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>743</v>
+        <v>468</v>
       </c>
       <c r="B278" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
       <c r="C278" t="s">
-        <v>745</v>
+        <v>469</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -7019,13 +7019,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>746</v>
+        <v>470</v>
       </c>
       <c r="B279" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="C279" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -7033,13 +7033,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>748</v>
+        <v>471</v>
       </c>
       <c r="B280" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="C280" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -7047,13 +7047,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>750</v>
+        <v>472</v>
       </c>
       <c r="B281" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="C281" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -7061,13 +7061,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>752</v>
+        <v>473</v>
       </c>
       <c r="B282" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="C282" t="s">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -7075,13 +7075,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>754</v>
+        <v>474</v>
       </c>
       <c r="B283" t="s">
-        <v>755</v>
+        <v>842</v>
       </c>
       <c r="C283" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -7089,13 +7089,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>756</v>
+        <v>475</v>
       </c>
       <c r="B284" t="s">
-        <v>757</v>
+        <v>843</v>
       </c>
       <c r="C284" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -7103,13 +7103,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>758</v>
+        <v>476</v>
       </c>
       <c r="B285" t="s">
-        <v>759</v>
+        <v>844</v>
       </c>
       <c r="C285" t="s">
-        <v>760</v>
+        <v>477</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -7117,13 +7117,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>761</v>
+        <v>478</v>
       </c>
       <c r="B286" t="s">
-        <v>762</v>
+        <v>845</v>
       </c>
       <c r="C286" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>763</v>
+        <v>479</v>
       </c>
       <c r="B287" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="C287" t="s">
-        <v>512</v>
+        <v>335</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -7145,13 +7145,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>765</v>
+        <v>480</v>
       </c>
       <c r="B288" t="s">
-        <v>766</v>
+        <v>847</v>
       </c>
       <c r="C288" t="s">
-        <v>767</v>
+        <v>481</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>768</v>
+        <v>482</v>
       </c>
       <c r="B289" t="s">
-        <v>769</v>
+        <v>848</v>
       </c>
       <c r="C289" t="s">
-        <v>639</v>
+        <v>411</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -7173,13 +7173,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>770</v>
+        <v>483</v>
       </c>
       <c r="B290" t="s">
-        <v>771</v>
+        <v>849</v>
       </c>
       <c r="C290" t="s">
-        <v>550</v>
+        <v>358</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -7187,13 +7187,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>772</v>
+        <v>484</v>
       </c>
       <c r="B291" t="s">
-        <v>773</v>
+        <v>850</v>
       </c>
       <c r="C291" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>774</v>
+        <v>485</v>
       </c>
       <c r="B292" t="s">
-        <v>775</v>
+        <v>851</v>
       </c>
       <c r="C292" t="s">
-        <v>430</v>
+        <v>284</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -7215,13 +7215,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>776</v>
+        <v>486</v>
       </c>
       <c r="B293" t="s">
-        <v>777</v>
+        <v>852</v>
       </c>
       <c r="C293" t="s">
-        <v>672</v>
+        <v>430</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -7229,13 +7229,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>778</v>
+        <v>487</v>
       </c>
       <c r="B294" t="s">
-        <v>779</v>
+        <v>853</v>
       </c>
       <c r="C294" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -7243,13 +7243,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>780</v>
+        <v>488</v>
       </c>
       <c r="B295" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
       <c r="C295" t="s">
-        <v>652</v>
+        <v>418</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -7257,13 +7257,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>782</v>
+        <v>489</v>
       </c>
       <c r="B296" t="s">
-        <v>783</v>
+        <v>855</v>
       </c>
       <c r="C296" t="s">
-        <v>784</v>
+        <v>490</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -7271,13 +7271,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>785</v>
+        <v>491</v>
       </c>
       <c r="B297" t="s">
-        <v>786</v>
+        <v>856</v>
       </c>
       <c r="C297" t="s">
-        <v>787</v>
+        <v>492</v>
       </c>
       <c r="D297">
         <v>3</v>
@@ -7285,13 +7285,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>788</v>
+        <v>493</v>
       </c>
       <c r="B298" t="s">
-        <v>789</v>
+        <v>857</v>
       </c>
       <c r="C298" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -7299,13 +7299,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>790</v>
+        <v>494</v>
       </c>
       <c r="B299" t="s">
-        <v>791</v>
+        <v>858</v>
       </c>
       <c r="C299" t="s">
-        <v>792</v>
+        <v>495</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -7313,13 +7313,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>793</v>
+        <v>496</v>
       </c>
       <c r="B300" t="s">
-        <v>794</v>
+        <v>859</v>
       </c>
       <c r="C300" t="s">
-        <v>715</v>
+        <v>453</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -7327,13 +7327,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>795</v>
+        <v>497</v>
       </c>
       <c r="B301" t="s">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="C301" t="s">
-        <v>574</v>
+        <v>372</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -7341,13 +7341,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>797</v>
+        <v>498</v>
       </c>
       <c r="B302" t="s">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="C302" t="s">
-        <v>799</v>
+        <v>499</v>
       </c>
       <c r="D302">
         <v>3</v>
@@ -7355,13 +7355,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="B303" t="s">
-        <v>801</v>
+        <v>862</v>
       </c>
       <c r="C303" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -7369,13 +7369,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>802</v>
+        <v>501</v>
       </c>
       <c r="B304" t="s">
-        <v>803</v>
+        <v>863</v>
       </c>
       <c r="C304" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -7383,13 +7383,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>804</v>
+        <v>502</v>
       </c>
       <c r="B305" t="s">
-        <v>805</v>
+        <v>864</v>
       </c>
       <c r="C305" t="s">
-        <v>492</v>
+        <v>322</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -7397,13 +7397,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>806</v>
+        <v>503</v>
       </c>
       <c r="B306" t="s">
-        <v>807</v>
+        <v>865</v>
       </c>
       <c r="C306" t="s">
-        <v>730</v>
+        <v>461</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -7411,13 +7411,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>808</v>
+        <v>504</v>
       </c>
       <c r="B307" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="C307" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -7425,13 +7425,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>810</v>
+        <v>505</v>
       </c>
       <c r="B308" t="s">
-        <v>811</v>
+        <v>867</v>
       </c>
       <c r="C308" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -7439,13 +7439,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>812</v>
+        <v>506</v>
       </c>
       <c r="B309" t="s">
-        <v>813</v>
+        <v>868</v>
       </c>
       <c r="C309" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>814</v>
+        <v>507</v>
       </c>
       <c r="B310" t="s">
-        <v>815</v>
+        <v>869</v>
       </c>
       <c r="C310" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -7467,13 +7467,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>816</v>
+        <v>508</v>
       </c>
       <c r="B311" t="s">
-        <v>817</v>
+        <v>870</v>
       </c>
       <c r="C311" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -7481,13 +7481,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>818</v>
+        <v>509</v>
       </c>
       <c r="B312" t="s">
-        <v>819</v>
+        <v>871</v>
       </c>
       <c r="C312" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -7495,13 +7495,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>820</v>
+        <v>510</v>
       </c>
       <c r="B313" t="s">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="C313" t="s">
-        <v>487</v>
+        <v>319</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -7509,13 +7509,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>822</v>
+        <v>511</v>
       </c>
       <c r="B314" t="s">
-        <v>823</v>
+        <v>873</v>
       </c>
       <c r="C314" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -7523,13 +7523,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>824</v>
+        <v>512</v>
       </c>
       <c r="B315" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="C315" t="s">
-        <v>583</v>
+        <v>378</v>
       </c>
       <c r="D315">
         <v>3</v>
@@ -7537,13 +7537,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>826</v>
+        <v>513</v>
       </c>
       <c r="B316" t="s">
-        <v>827</v>
+        <v>875</v>
       </c>
       <c r="C316" t="s">
-        <v>526</v>
+        <v>344</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -7551,13 +7551,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>828</v>
+        <v>514</v>
       </c>
       <c r="B317" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
       <c r="C317" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -7565,13 +7565,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>830</v>
+        <v>515</v>
       </c>
       <c r="B318" t="s">
-        <v>831</v>
+        <v>877</v>
       </c>
       <c r="C318" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="D318">
         <v>3</v>
@@ -7579,13 +7579,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>832</v>
+        <v>516</v>
       </c>
       <c r="B319" t="s">
-        <v>833</v>
+        <v>878</v>
       </c>
       <c r="C319" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -7593,13 +7593,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>834</v>
+        <v>517</v>
       </c>
       <c r="B320" t="s">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="C320" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -7607,13 +7607,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>836</v>
+        <v>518</v>
       </c>
       <c r="B321" t="s">
-        <v>837</v>
+        <v>880</v>
       </c>
       <c r="C321" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="D321">
         <v>3</v>
@@ -7621,13 +7621,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>838</v>
+        <v>519</v>
       </c>
       <c r="B322" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="C322" t="s">
-        <v>760</v>
+        <v>477</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -7635,13 +7635,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="B323" t="s">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="C323" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D323">
         <v>3</v>
@@ -7649,13 +7649,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>842</v>
+        <v>521</v>
       </c>
       <c r="B324" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="C324" t="s">
-        <v>661</v>
+        <v>423</v>
       </c>
       <c r="D324">
         <v>3</v>
@@ -7663,13 +7663,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>844</v>
+        <v>522</v>
       </c>
       <c r="B325" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="C325" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -7677,13 +7677,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>846</v>
+        <v>523</v>
       </c>
       <c r="B326" t="s">
-        <v>847</v>
+        <v>885</v>
       </c>
       <c r="C326" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D326">
         <v>3</v>
@@ -7691,13 +7691,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>848</v>
+        <v>524</v>
       </c>
       <c r="B327" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="C327" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D327">
         <v>3</v>
@@ -7705,13 +7705,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>850</v>
+        <v>525</v>
       </c>
       <c r="B328" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="C328" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D328">
         <v>3</v>
@@ -7719,13 +7719,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>852</v>
+        <v>526</v>
       </c>
       <c r="B329" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="C329" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D329">
         <v>3</v>
@@ -7733,13 +7733,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>854</v>
+        <v>527</v>
       </c>
       <c r="B330" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="C330" t="s">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="D330">
         <v>3</v>
@@ -7747,13 +7747,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>856</v>
+        <v>528</v>
       </c>
       <c r="B331" t="s">
-        <v>857</v>
+        <v>890</v>
       </c>
       <c r="C331" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -7761,13 +7761,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>858</v>
+        <v>529</v>
       </c>
       <c r="B332" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="C332" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="D332">
         <v>3</v>
@@ -7775,13 +7775,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>860</v>
+        <v>530</v>
       </c>
       <c r="B333" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="C333" t="s">
-        <v>626</v>
+        <v>403</v>
       </c>
       <c r="D333">
         <v>3</v>
@@ -7789,13 +7789,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>862</v>
+        <v>531</v>
       </c>
       <c r="B334" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="C334" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D334">
         <v>3</v>
@@ -7803,13 +7803,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>864</v>
+        <v>532</v>
       </c>
       <c r="B335" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
       <c r="C335" t="s">
-        <v>792</v>
+        <v>495</v>
       </c>
       <c r="D335">
         <v>3</v>
@@ -7817,13 +7817,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>866</v>
+        <v>533</v>
       </c>
       <c r="B336" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="C336" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="D336">
         <v>3</v>
@@ -7831,13 +7831,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>868</v>
+        <v>534</v>
       </c>
       <c r="B337" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="C337" t="s">
-        <v>870</v>
+        <v>535</v>
       </c>
       <c r="D337">
         <v>3</v>
@@ -7845,13 +7845,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>871</v>
+        <v>536</v>
       </c>
       <c r="B338" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="C338" t="s">
-        <v>745</v>
+        <v>469</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -7859,13 +7859,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>873</v>
+        <v>537</v>
       </c>
       <c r="B339" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="C339" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D339">
         <v>3</v>
@@ -7873,13 +7873,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>875</v>
+        <v>538</v>
       </c>
       <c r="B340" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="C340" t="s">
-        <v>526</v>
+        <v>344</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -7887,13 +7887,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>877</v>
+        <v>539</v>
       </c>
       <c r="B341" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="C341" t="s">
-        <v>555</v>
+        <v>361</v>
       </c>
       <c r="D341">
         <v>3</v>
@@ -7901,13 +7901,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>879</v>
+        <v>540</v>
       </c>
       <c r="B342" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="C342" t="s">
-        <v>619</v>
+        <v>399</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -7915,13 +7915,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>881</v>
+        <v>541</v>
       </c>
       <c r="B343" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="C343" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D343">
         <v>3</v>
@@ -7929,13 +7929,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>883</v>
+        <v>542</v>
       </c>
       <c r="B344" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="C344" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -7943,13 +7943,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>885</v>
+        <v>543</v>
       </c>
       <c r="B345" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="C345" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D345">
         <v>3</v>
@@ -7957,13 +7957,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>887</v>
+        <v>544</v>
       </c>
       <c r="B346" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="C346" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="D346">
         <v>3</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>889</v>
+        <v>545</v>
       </c>
       <c r="B347" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="C347" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -7985,13 +7985,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>891</v>
+        <v>546</v>
       </c>
       <c r="B348" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="C348" t="s">
-        <v>689</v>
+        <v>439</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -7999,13 +7999,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>893</v>
+        <v>547</v>
       </c>
       <c r="B349" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="C349" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="D349">
         <v>3</v>
@@ -8013,13 +8013,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>895</v>
+        <v>548</v>
       </c>
       <c r="B350" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="C350" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -8027,13 +8027,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>897</v>
+        <v>549</v>
       </c>
       <c r="B351" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C351" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="D351">
         <v>3</v>
@@ -8041,13 +8041,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>899</v>
+        <v>550</v>
       </c>
       <c r="B352" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="C352" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D352">
         <v>3</v>
@@ -8055,13 +8055,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>901</v>
+        <v>551</v>
       </c>
       <c r="B353" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C353" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -8069,13 +8069,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>903</v>
+        <v>552</v>
       </c>
       <c r="B354" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="C354" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="D354">
         <v>3</v>
@@ -8083,13 +8083,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>905</v>
+        <v>553</v>
       </c>
       <c r="B355" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C355" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="D355">
         <v>3</v>
@@ -8097,13 +8097,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>907</v>
+        <v>554</v>
       </c>
       <c r="B356" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="C356" t="s">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="D356">
         <v>3</v>
@@ -8111,13 +8111,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>909</v>
+        <v>555</v>
       </c>
       <c r="B357" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C357" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -8125,13 +8125,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>911</v>
+        <v>556</v>
       </c>
       <c r="B358" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C358" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="D358">
         <v>3</v>
@@ -8139,13 +8139,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>913</v>
+        <v>557</v>
       </c>
       <c r="B359" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C359" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D359">
         <v>3</v>
@@ -8153,13 +8153,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>915</v>
+        <v>558</v>
       </c>
       <c r="B360" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C360" t="s">
-        <v>917</v>
+        <v>559</v>
       </c>
       <c r="D360">
         <v>3</v>
@@ -8167,13 +8167,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>918</v>
+        <v>560</v>
       </c>
       <c r="B361" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C361" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -8181,13 +8181,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>920</v>
+        <v>561</v>
       </c>
       <c r="B362" t="s">
         <v>921</v>
       </c>
       <c r="C362" t="s">
-        <v>767</v>
+        <v>481</v>
       </c>
       <c r="D362">
         <v>3</v>
